--- a/curation/draft/package12/R12_BC_SDTM_QRS_KPS.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_KPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95D4E-3B52-48B0-B22B-A8AC09E24C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB8A6B-1690-46C1-B849-D2BB4C4855CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,13 +393,13 @@
     <t>KPSS0101STR</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>Normal no complaints, no evidence of disease.; Able to carry on normal activity, minor signs or symptoms of disease.; Normal activity with effort, some signs or symptoms of disease.; Cares for self, unable to carry on normal activity or to do active work.; Requires occasional assistance, but is able to care for most of his personal needs.; Requires considerable assistance and frequent medical care.; Disabled, requires special care and assistance.; Severely disabled, hospital admission is indicated although death not imminent.; Very sick, hospital admission necessary, active supportive treatment necessary.; Moribund, fatal processes progressing rapidly.; Dead</t>
   </si>
   <si>
     <t>R12</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>21</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="3" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>100</v>
@@ -959,7 +959,7 @@
         <v>104</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>105</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>100</v>
@@ -1003,7 +1003,7 @@
         <v>104</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>105</v>
@@ -1021,12 +1021,12 @@
         <v>57</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>100</v>
@@ -1047,7 +1047,7 @@
         <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>105</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>100</v>
@@ -1091,7 +1091,7 @@
         <v>104</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>105</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -1341,7 +1341,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
@@ -1418,7 +1418,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
@@ -1492,7 +1492,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -1566,7 +1566,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
@@ -1637,7 +1637,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1708,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
